--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wken0\Desktop\HAL\2年\HF21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6A78A3-4607-4C99-B439-BB9601A4C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D9D13-FA6C-4EF6-A413-104D4B2EE3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
       <pane xSplit="9" ySplit="3" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4756,7 +4756,9 @@
       <c r="G27" s="33">
         <v>45236</v>
       </c>
-      <c r="I27" s="37"/>
+      <c r="I27" s="37">
+        <v>1</v>
+      </c>
       <c r="J27" s="47"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -4854,7 +4856,9 @@
         <v>45236</v>
       </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="37"/>
+      <c r="I28" s="37">
+        <v>1</v>
+      </c>
       <c r="J28" s="47"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6A78A3-4607-4C99-B439-BB9601A4C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB56AA-870D-49F8-A1D3-D8DDC2CED492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>分類</t>
   </si>
@@ -400,6 +400,16 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>企画書提出</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -588,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +750,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,13 +1011,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EZ1003"/>
+  <dimension ref="A1:EZ1004"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4578,16 +4594,16 @@
     <row r="25" spans="1:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32" t="s">
-        <v>37</v>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="21">
-        <v>45238</v>
+        <v>45230</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="37"/>
@@ -4600,10 +4616,6 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="AD25" s="8"/>
@@ -4652,13 +4664,23 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="21">
+        <v>45238</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="37"/>
       <c r="J26" s="47"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -4669,46 +4691,17 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
-      <c r="AQ26" s="8"/>
       <c r="AR26" s="8"/>
       <c r="AS26" s="8"/>
-      <c r="AT26" s="8"/>
-      <c r="AU26" s="8"/>
-      <c r="AV26" s="8"/>
-      <c r="AW26" s="8"/>
-      <c r="AX26" s="8"/>
       <c r="AY26" s="8"/>
       <c r="AZ26" s="8"/>
-      <c r="BA26" s="8"/>
-      <c r="BB26" s="8"/>
-      <c r="BC26" s="8"/>
-      <c r="BD26" s="8"/>
-      <c r="BE26" s="8"/>
       <c r="BF26" s="8"/>
       <c r="BG26" s="8"/>
-      <c r="BH26" s="8"/>
-      <c r="BI26" s="8"/>
-      <c r="BJ26" s="8"/>
-      <c r="BK26" s="8"/>
-      <c r="BL26" s="8"/>
       <c r="BM26" s="8"/>
       <c r="BN26" s="8"/>
       <c r="BR26" s="8"/>
@@ -4743,19 +4736,12 @@
     <row r="27" spans="1:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="33">
-        <v>45236</v>
-      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="37"/>
       <c r="J27" s="47"/>
       <c r="O27" s="8"/>
@@ -4842,9 +4828,11 @@
     <row r="28" spans="1:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="32"/>
+      <c r="C28" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="D28" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>13</v>
@@ -4853,7 +4841,6 @@
       <c r="G28" s="33">
         <v>45236</v>
       </c>
-      <c r="H28" s="9"/>
       <c r="I28" s="37"/>
       <c r="J28" s="47"/>
       <c r="O28" s="8"/>
@@ -4938,10 +4925,11 @@
       <c r="EZ28" s="12"/>
     </row>
     <row r="29" spans="1:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>13</v>
@@ -4953,8 +4941,13 @@
       <c r="H29" s="9"/>
       <c r="I29" s="37"/>
       <c r="J29" s="47"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
@@ -4966,15 +4959,38 @@
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
       <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
+      <c r="AQ29" s="8"/>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
       <c r="AY29" s="8"/>
       <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
       <c r="BF29" s="8"/>
       <c r="BG29" s="8"/>
+      <c r="BH29" s="8"/>
+      <c r="BI29" s="8"/>
+      <c r="BJ29" s="8"/>
+      <c r="BK29" s="8"/>
+      <c r="BL29" s="8"/>
       <c r="BM29" s="8"/>
       <c r="BN29" s="8"/>
       <c r="BR29" s="8"/>
@@ -5010,7 +5026,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="32"/>
       <c r="D30" s="32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>13</v>
@@ -5022,13 +5038,8 @@
       <c r="H30" s="9"/>
       <c r="I30" s="37"/>
       <c r="J30" s="47"/>
-      <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
@@ -5040,38 +5051,15 @@
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
       <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="8"/>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8"/>
-      <c r="AT30" s="8"/>
-      <c r="AU30" s="8"/>
-      <c r="AV30" s="8"/>
-      <c r="AW30" s="8"/>
-      <c r="AX30" s="8"/>
       <c r="AY30" s="8"/>
       <c r="AZ30" s="8"/>
-      <c r="BA30" s="8"/>
-      <c r="BB30" s="8"/>
-      <c r="BC30" s="8"/>
-      <c r="BD30" s="8"/>
-      <c r="BE30" s="8"/>
       <c r="BF30" s="8"/>
       <c r="BG30" s="8"/>
-      <c r="BH30" s="8"/>
-      <c r="BI30" s="8"/>
-      <c r="BJ30" s="8"/>
-      <c r="BK30" s="8"/>
-      <c r="BL30" s="8"/>
       <c r="BM30" s="8"/>
       <c r="BN30" s="8"/>
       <c r="BR30" s="8"/>
@@ -5107,14 +5095,14 @@
       <c r="B31" s="9"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33">
-        <v>45226</v>
+        <v>45236</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="37"/>
@@ -5203,10 +5191,16 @@
     <row r="32" spans="1:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="33">
+        <v>45226</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="37"/>
       <c r="J32" s="47"/>
@@ -5293,24 +5287,14 @@
     </row>
     <row r="33" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
-      <c r="C33" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="33">
-        <v>45233</v>
-      </c>
-      <c r="G33" s="33">
-        <v>45236</v>
-      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="46"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="47"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
@@ -5394,9 +5378,11 @@
     </row>
     <row r="34" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
-      <c r="C34" s="32"/>
+      <c r="C34" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="D34" s="32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>16</v>
@@ -5408,23 +5394,57 @@
         <v>45236</v>
       </c>
       <c r="H34" s="9"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="47"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="46"/>
+      <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
       <c r="AK34" s="8"/>
       <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
+      <c r="AQ34" s="8"/>
       <c r="AR34" s="8"/>
       <c r="AS34" s="8"/>
+      <c r="AT34" s="8"/>
+      <c r="AU34" s="8"/>
+      <c r="AV34" s="8"/>
+      <c r="AW34" s="8"/>
+      <c r="AX34" s="8"/>
       <c r="AY34" s="8"/>
       <c r="AZ34" s="8"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
+      <c r="BC34" s="8"/>
+      <c r="BD34" s="8"/>
+      <c r="BE34" s="8"/>
       <c r="BF34" s="8"/>
       <c r="BG34" s="8"/>
+      <c r="BH34" s="8"/>
+      <c r="BI34" s="8"/>
+      <c r="BJ34" s="8"/>
+      <c r="BK34" s="8"/>
       <c r="BL34" s="8"/>
       <c r="BM34" s="8"/>
       <c r="BN34" s="8"/>
@@ -5460,57 +5480,37 @@
     <row r="35" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="D35" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="33">
+        <v>45233</v>
+      </c>
+      <c r="G35" s="33">
+        <v>45236</v>
+      </c>
       <c r="H35" s="9"/>
       <c r="I35" s="37"/>
       <c r="J35" s="47"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
       <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
       <c r="AP35" s="8"/>
-      <c r="AQ35" s="8"/>
       <c r="AR35" s="8"/>
       <c r="AS35" s="8"/>
-      <c r="AT35" s="8"/>
-      <c r="AU35" s="8"/>
-      <c r="AV35" s="8"/>
-      <c r="AW35" s="8"/>
-      <c r="AX35" s="8"/>
       <c r="AY35" s="8"/>
       <c r="AZ35" s="8"/>
       <c r="BF35" s="8"/>
       <c r="BG35" s="8"/>
+      <c r="BL35" s="8"/>
       <c r="BM35" s="8"/>
       <c r="BN35" s="8"/>
       <c r="BR35" s="8"/>
@@ -5594,25 +5594,11 @@
       <c r="AX36" s="8"/>
       <c r="AY36" s="8"/>
       <c r="AZ36" s="8"/>
-      <c r="BA36" s="8"/>
-      <c r="BB36" s="8"/>
-      <c r="BC36" s="8"/>
-      <c r="BD36" s="8"/>
-      <c r="BE36" s="8"/>
       <c r="BF36" s="8"/>
       <c r="BG36" s="8"/>
-      <c r="BH36" s="8"/>
-      <c r="BI36" s="8"/>
-      <c r="BJ36" s="8"/>
-      <c r="BK36" s="8"/>
-      <c r="BL36" s="8"/>
       <c r="BM36" s="8"/>
       <c r="BN36" s="8"/>
-      <c r="BO36" s="8"/>
-      <c r="BP36" s="8"/>
-      <c r="BQ36" s="8"/>
       <c r="BR36" s="8"/>
-      <c r="BS36" s="8"/>
       <c r="BT36" s="8"/>
       <c r="BU36" s="8"/>
       <c r="CA36" s="8"/>
@@ -5643,20 +5629,26 @@
     </row>
     <row r="37" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
-      <c r="C37" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>52</v>
-      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="9"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
       <c r="H37" s="9"/>
       <c r="I37" s="37"/>
       <c r="J37" s="47"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
@@ -5701,7 +5693,11 @@
       <c r="BL37" s="8"/>
       <c r="BM37" s="8"/>
       <c r="BN37" s="8"/>
+      <c r="BO37" s="8"/>
+      <c r="BP37" s="8"/>
+      <c r="BQ37" s="8"/>
       <c r="BR37" s="8"/>
+      <c r="BS37" s="8"/>
       <c r="BT37" s="8"/>
       <c r="BU37" s="8"/>
       <c r="CA37" s="8"/>
@@ -5732,8 +5728,12 @@
     </row>
     <row r="38" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="C38" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -5786,11 +5786,7 @@
       <c r="BL38" s="8"/>
       <c r="BM38" s="8"/>
       <c r="BN38" s="8"/>
-      <c r="BO38" s="8"/>
-      <c r="BP38" s="8"/>
-      <c r="BQ38" s="8"/>
       <c r="BR38" s="8"/>
-      <c r="BS38" s="8"/>
       <c r="BT38" s="8"/>
       <c r="BU38" s="8"/>
       <c r="CA38" s="8"/>
@@ -5821,19 +5817,11 @@
     </row>
     <row r="39" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
-      <c r="C39" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="33">
-        <v>45260</v>
-      </c>
+      <c r="G39" s="33"/>
       <c r="H39" s="9"/>
       <c r="I39" s="37"/>
       <c r="J39" s="47"/>
@@ -5841,17 +5829,45 @@
       <c r="Q39" s="8"/>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
       <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
       <c r="AP39" s="8"/>
+      <c r="AQ39" s="8"/>
       <c r="AR39" s="8"/>
       <c r="AS39" s="8"/>
+      <c r="AT39" s="8"/>
+      <c r="AU39" s="8"/>
+      <c r="AV39" s="8"/>
+      <c r="AW39" s="8"/>
+      <c r="AX39" s="8"/>
       <c r="AY39" s="8"/>
       <c r="AZ39" s="8"/>
+      <c r="BA39" s="8"/>
+      <c r="BB39" s="8"/>
+      <c r="BC39" s="8"/>
+      <c r="BD39" s="8"/>
+      <c r="BE39" s="8"/>
       <c r="BF39" s="8"/>
       <c r="BG39" s="8"/>
+      <c r="BH39" s="8"/>
+      <c r="BI39" s="8"/>
+      <c r="BJ39" s="8"/>
+      <c r="BK39" s="8"/>
       <c r="BL39" s="8"/>
       <c r="BM39" s="8"/>
       <c r="BN39" s="8"/>
@@ -5862,118 +5878,58 @@
       <c r="BS39" s="8"/>
       <c r="BT39" s="8"/>
       <c r="BU39" s="8"/>
-      <c r="BV39" s="8"/>
-      <c r="BW39" s="8"/>
-      <c r="BX39" s="8"/>
-      <c r="BY39" s="8"/>
-      <c r="BZ39" s="8"/>
       <c r="CA39" s="8"/>
       <c r="CB39" s="8"/>
-      <c r="CC39" s="8"/>
-      <c r="CD39" s="8"/>
       <c r="CE39" s="8"/>
-      <c r="CF39" s="8"/>
-      <c r="CG39" s="8"/>
       <c r="CH39" s="8"/>
       <c r="CI39" s="8"/>
-      <c r="CJ39" s="8"/>
-      <c r="CK39" s="8"/>
-      <c r="CL39" s="8"/>
-      <c r="CM39" s="8"/>
-      <c r="CN39" s="8"/>
       <c r="CO39" s="8"/>
       <c r="CP39" s="8"/>
-      <c r="CQ39" s="8"/>
-      <c r="CR39" s="12"/>
-      <c r="CS39" s="12"/>
-      <c r="CT39" s="12"/>
-      <c r="CU39" s="12"/>
       <c r="CV39" s="12"/>
       <c r="CW39" s="12"/>
-      <c r="CX39" s="12"/>
-      <c r="CY39" s="12"/>
-      <c r="CZ39" s="12"/>
-      <c r="DA39" s="12"/>
-      <c r="DB39" s="12"/>
       <c r="DC39" s="12"/>
       <c r="DD39" s="12"/>
-      <c r="DE39" s="12"/>
-      <c r="DF39" s="12"/>
-      <c r="DG39" s="12"/>
-      <c r="DH39" s="12"/>
       <c r="DI39" s="12"/>
       <c r="DJ39" s="12"/>
       <c r="DK39" s="12"/>
-      <c r="DL39" s="12"/>
-      <c r="DM39" s="12"/>
-      <c r="DN39" s="12"/>
-      <c r="DO39" s="12"/>
-      <c r="DP39" s="12"/>
       <c r="DQ39" s="12"/>
       <c r="DR39" s="12"/>
-      <c r="DS39" s="12"/>
-      <c r="DT39" s="12"/>
-      <c r="DU39" s="12"/>
-      <c r="DV39" s="12"/>
-      <c r="DW39" s="12"/>
       <c r="DX39" s="12"/>
       <c r="DY39" s="12"/>
-      <c r="DZ39" s="12"/>
-      <c r="EA39" s="12"/>
-      <c r="EB39" s="12"/>
-      <c r="EC39" s="12"/>
-      <c r="ED39" s="12"/>
       <c r="EE39" s="12"/>
       <c r="EF39" s="12"/>
-      <c r="EG39" s="12"/>
-      <c r="EH39" s="12"/>
-      <c r="EI39" s="12"/>
-      <c r="EJ39" s="12"/>
-      <c r="EK39" s="12"/>
       <c r="EL39" s="12"/>
       <c r="EM39" s="12"/>
-      <c r="EN39" s="12"/>
-      <c r="EO39" s="12"/>
-      <c r="EP39" s="12"/>
-      <c r="EQ39" s="12"/>
-      <c r="ER39" s="12"/>
       <c r="ES39" s="12"/>
       <c r="ET39" s="12"/>
-      <c r="EU39" s="12"/>
-      <c r="EV39" s="12"/>
-      <c r="EW39" s="12"/>
-      <c r="EX39" s="12"/>
-      <c r="EY39" s="12"/>
       <c r="EZ39" s="12"/>
     </row>
     <row r="40" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34" t="s">
-        <v>55</v>
+      <c r="C40" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35">
+      <c r="F40" s="33"/>
+      <c r="G40" s="33">
         <v>45260</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="46"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="47"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="AD40" s="8"/>
       <c r="AE40" s="8"/>
-      <c r="AJ40" s="8"/>
       <c r="AK40" s="8"/>
       <c r="AL40" s="8"/>
-      <c r="AM40" s="8"/>
       <c r="AP40" s="8"/>
       <c r="AR40" s="8"/>
       <c r="AS40" s="8"/>
@@ -5981,133 +5937,147 @@
       <c r="AZ40" s="8"/>
       <c r="BF40" s="8"/>
       <c r="BG40" s="8"/>
+      <c r="BL40" s="8"/>
       <c r="BM40" s="8"/>
       <c r="BN40" s="8"/>
+      <c r="BO40" s="8"/>
+      <c r="BP40" s="8"/>
+      <c r="BQ40" s="8"/>
       <c r="BR40" s="8"/>
+      <c r="BS40" s="8"/>
       <c r="BT40" s="8"/>
       <c r="BU40" s="8"/>
+      <c r="BV40" s="8"/>
+      <c r="BW40" s="8"/>
+      <c r="BX40" s="8"/>
+      <c r="BY40" s="8"/>
+      <c r="BZ40" s="8"/>
       <c r="CA40" s="8"/>
       <c r="CB40" s="8"/>
+      <c r="CC40" s="8"/>
+      <c r="CD40" s="8"/>
       <c r="CE40" s="8"/>
+      <c r="CF40" s="8"/>
+      <c r="CG40" s="8"/>
       <c r="CH40" s="8"/>
       <c r="CI40" s="8"/>
+      <c r="CJ40" s="8"/>
+      <c r="CK40" s="8"/>
+      <c r="CL40" s="8"/>
+      <c r="CM40" s="8"/>
+      <c r="CN40" s="8"/>
       <c r="CO40" s="8"/>
       <c r="CP40" s="8"/>
+      <c r="CQ40" s="8"/>
+      <c r="CR40" s="12"/>
+      <c r="CS40" s="12"/>
+      <c r="CT40" s="12"/>
+      <c r="CU40" s="12"/>
       <c r="CV40" s="12"/>
       <c r="CW40" s="12"/>
+      <c r="CX40" s="12"/>
+      <c r="CY40" s="12"/>
+      <c r="CZ40" s="12"/>
+      <c r="DA40" s="12"/>
+      <c r="DB40" s="12"/>
       <c r="DC40" s="12"/>
       <c r="DD40" s="12"/>
+      <c r="DE40" s="12"/>
+      <c r="DF40" s="12"/>
+      <c r="DG40" s="12"/>
+      <c r="DH40" s="12"/>
       <c r="DI40" s="12"/>
       <c r="DJ40" s="12"/>
       <c r="DK40" s="12"/>
+      <c r="DL40" s="12"/>
+      <c r="DM40" s="12"/>
+      <c r="DN40" s="12"/>
+      <c r="DO40" s="12"/>
+      <c r="DP40" s="12"/>
       <c r="DQ40" s="12"/>
       <c r="DR40" s="12"/>
+      <c r="DS40" s="12"/>
+      <c r="DT40" s="12"/>
+      <c r="DU40" s="12"/>
+      <c r="DV40" s="12"/>
+      <c r="DW40" s="12"/>
       <c r="DX40" s="12"/>
       <c r="DY40" s="12"/>
+      <c r="DZ40" s="12"/>
+      <c r="EA40" s="12"/>
+      <c r="EB40" s="12"/>
+      <c r="EC40" s="12"/>
+      <c r="ED40" s="12"/>
       <c r="EE40" s="12"/>
       <c r="EF40" s="12"/>
+      <c r="EG40" s="12"/>
+      <c r="EH40" s="12"/>
+      <c r="EI40" s="12"/>
+      <c r="EJ40" s="12"/>
+      <c r="EK40" s="12"/>
       <c r="EL40" s="12"/>
       <c r="EM40" s="12"/>
+      <c r="EN40" s="12"/>
+      <c r="EO40" s="12"/>
+      <c r="EP40" s="12"/>
+      <c r="EQ40" s="12"/>
+      <c r="ER40" s="12"/>
       <c r="ES40" s="12"/>
       <c r="ET40" s="12"/>
+      <c r="EU40" s="12"/>
+      <c r="EV40" s="12"/>
+      <c r="EW40" s="12"/>
+      <c r="EX40" s="12"/>
+      <c r="EY40" s="12"/>
       <c r="EZ40" s="12"/>
     </row>
     <row r="41" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F41" s="35"/>
-      <c r="G41" s="21"/>
+      <c r="G41" s="35">
+        <v>45260</v>
+      </c>
       <c r="H41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="47"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="46"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
       <c r="AL41" s="8"/>
       <c r="AM41" s="8"/>
-      <c r="AN41" s="8"/>
-      <c r="AO41" s="8"/>
       <c r="AP41" s="8"/>
-      <c r="AQ41" s="8"/>
       <c r="AR41" s="8"/>
       <c r="AS41" s="8"/>
-      <c r="AT41" s="8"/>
-      <c r="AU41" s="8"/>
-      <c r="AV41" s="8"/>
-      <c r="AW41" s="8"/>
-      <c r="AX41" s="8"/>
       <c r="AY41" s="8"/>
       <c r="AZ41" s="8"/>
-      <c r="BA41" s="8"/>
-      <c r="BB41" s="8"/>
-      <c r="BC41" s="8"/>
-      <c r="BD41" s="8"/>
-      <c r="BE41" s="8"/>
       <c r="BF41" s="8"/>
       <c r="BG41" s="8"/>
-      <c r="BH41" s="8"/>
-      <c r="BI41" s="8"/>
-      <c r="BJ41" s="8"/>
-      <c r="BK41" s="8"/>
-      <c r="BL41" s="8"/>
       <c r="BM41" s="8"/>
       <c r="BN41" s="8"/>
-      <c r="BO41" s="8"/>
-      <c r="BP41" s="8"/>
-      <c r="BQ41" s="8"/>
       <c r="BR41" s="8"/>
-      <c r="BS41" s="8"/>
       <c r="BT41" s="8"/>
       <c r="BU41" s="8"/>
-      <c r="BV41" s="8"/>
-      <c r="BW41" s="8"/>
-      <c r="BX41" s="8"/>
-      <c r="BY41" s="8"/>
-      <c r="BZ41" s="8"/>
       <c r="CA41" s="8"/>
       <c r="CB41" s="8"/>
-      <c r="CC41" s="8"/>
-      <c r="CD41" s="8"/>
       <c r="CE41" s="8"/>
-      <c r="CF41" s="8"/>
-      <c r="CG41" s="8"/>
       <c r="CH41" s="8"/>
       <c r="CI41" s="8"/>
-      <c r="CJ41" s="8"/>
-      <c r="CK41" s="8"/>
-      <c r="CL41" s="8"/>
-      <c r="CM41" s="8"/>
-      <c r="CN41" s="8"/>
       <c r="CO41" s="8"/>
       <c r="CP41" s="8"/>
-      <c r="CQ41" s="8"/>
       <c r="CV41" s="12"/>
       <c r="CW41" s="12"/>
       <c r="DC41" s="12"/>
@@ -6130,10 +6100,14 @@
     <row r="42" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="9" t="s">
         <v>11</v>
       </c>
@@ -6190,16 +6164,35 @@
       <c r="BL42" s="8"/>
       <c r="BM42" s="8"/>
       <c r="BN42" s="8"/>
+      <c r="BO42" s="8"/>
+      <c r="BP42" s="8"/>
+      <c r="BQ42" s="8"/>
       <c r="BR42" s="8"/>
+      <c r="BS42" s="8"/>
       <c r="BT42" s="8"/>
       <c r="BU42" s="8"/>
+      <c r="BV42" s="8"/>
+      <c r="BW42" s="8"/>
+      <c r="BX42" s="8"/>
+      <c r="BY42" s="8"/>
+      <c r="BZ42" s="8"/>
       <c r="CA42" s="8"/>
       <c r="CB42" s="8"/>
+      <c r="CC42" s="8"/>
+      <c r="CD42" s="8"/>
       <c r="CE42" s="8"/>
+      <c r="CF42" s="8"/>
+      <c r="CG42" s="8"/>
       <c r="CH42" s="8"/>
       <c r="CI42" s="8"/>
+      <c r="CJ42" s="8"/>
+      <c r="CK42" s="8"/>
+      <c r="CL42" s="8"/>
+      <c r="CM42" s="8"/>
+      <c r="CN42" s="8"/>
       <c r="CO42" s="8"/>
       <c r="CP42" s="8"/>
+      <c r="CQ42" s="8"/>
       <c r="CV42" s="12"/>
       <c r="CW42" s="12"/>
       <c r="DC42" s="12"/>
@@ -6229,8 +6222,8 @@
       <c r="H43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="46"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="47"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
@@ -6240,17 +6233,46 @@
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
       <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
       <c r="AP43" s="8"/>
+      <c r="AQ43" s="8"/>
       <c r="AR43" s="8"/>
       <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="8"/>
+      <c r="AW43" s="8"/>
+      <c r="AX43" s="8"/>
       <c r="AY43" s="8"/>
       <c r="AZ43" s="8"/>
+      <c r="BA43" s="8"/>
+      <c r="BB43" s="8"/>
+      <c r="BC43" s="8"/>
+      <c r="BD43" s="8"/>
+      <c r="BE43" s="8"/>
       <c r="BF43" s="8"/>
       <c r="BG43" s="8"/>
+      <c r="BH43" s="8"/>
+      <c r="BI43" s="8"/>
+      <c r="BJ43" s="8"/>
+      <c r="BK43" s="8"/>
+      <c r="BL43" s="8"/>
       <c r="BM43" s="8"/>
       <c r="BN43" s="8"/>
       <c r="BR43" s="8"/>
@@ -6284,11 +6306,11 @@
     </row>
     <row r="44" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="9"/>
       <c r="F44" s="35"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="35"/>
       <c r="H44" s="9" t="s">
         <v>11</v>
       </c>
@@ -6303,77 +6325,29 @@
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
       <c r="AK44" s="8"/>
       <c r="AL44" s="8"/>
-      <c r="AM44" s="8"/>
-      <c r="AN44" s="8"/>
-      <c r="AO44" s="8"/>
       <c r="AP44" s="8"/>
-      <c r="AQ44" s="8"/>
       <c r="AR44" s="8"/>
       <c r="AS44" s="8"/>
-      <c r="AT44" s="8"/>
-      <c r="AU44" s="8"/>
-      <c r="AV44" s="8"/>
-      <c r="AW44" s="8"/>
-      <c r="AX44" s="8"/>
       <c r="AY44" s="8"/>
       <c r="AZ44" s="8"/>
-      <c r="BA44" s="8"/>
-      <c r="BB44" s="8"/>
-      <c r="BC44" s="8"/>
-      <c r="BD44" s="8"/>
-      <c r="BE44" s="8"/>
       <c r="BF44" s="8"/>
       <c r="BG44" s="8"/>
-      <c r="BH44" s="8"/>
-      <c r="BI44" s="8"/>
-      <c r="BJ44" s="8"/>
-      <c r="BK44" s="8"/>
-      <c r="BL44" s="8"/>
       <c r="BM44" s="8"/>
       <c r="BN44" s="8"/>
-      <c r="BO44" s="8"/>
-      <c r="BP44" s="8"/>
-      <c r="BQ44" s="8"/>
       <c r="BR44" s="8"/>
-      <c r="BS44" s="8"/>
       <c r="BT44" s="8"/>
       <c r="BU44" s="8"/>
-      <c r="BV44" s="8"/>
-      <c r="BW44" s="8"/>
-      <c r="BX44" s="8"/>
-      <c r="BY44" s="8"/>
-      <c r="BZ44" s="8"/>
       <c r="CA44" s="8"/>
       <c r="CB44" s="8"/>
-      <c r="CC44" s="8"/>
-      <c r="CD44" s="8"/>
       <c r="CE44" s="8"/>
-      <c r="CF44" s="8"/>
-      <c r="CG44" s="8"/>
       <c r="CH44" s="8"/>
       <c r="CI44" s="8"/>
-      <c r="CJ44" s="8"/>
-      <c r="CK44" s="8"/>
-      <c r="CL44" s="8"/>
-      <c r="CM44" s="8"/>
-      <c r="CN44" s="8"/>
       <c r="CO44" s="8"/>
       <c r="CP44" s="8"/>
-      <c r="CQ44" s="8"/>
       <c r="CV44" s="12"/>
       <c r="CW44" s="12"/>
       <c r="DC44" s="12"/>
@@ -6395,42 +6369,96 @@
     </row>
     <row r="45" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="48"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="36"/>
+      <c r="J45" s="46"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
       <c r="AK45" s="8"/>
       <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
       <c r="AP45" s="8"/>
-      <c r="AQ45" s="12"/>
+      <c r="AQ45" s="8"/>
       <c r="AR45" s="8"/>
       <c r="AS45" s="8"/>
+      <c r="AT45" s="8"/>
+      <c r="AU45" s="8"/>
+      <c r="AV45" s="8"/>
+      <c r="AW45" s="8"/>
+      <c r="AX45" s="8"/>
       <c r="AY45" s="8"/>
       <c r="AZ45" s="8"/>
+      <c r="BA45" s="8"/>
+      <c r="BB45" s="8"/>
+      <c r="BC45" s="8"/>
+      <c r="BD45" s="8"/>
+      <c r="BE45" s="8"/>
       <c r="BF45" s="8"/>
       <c r="BG45" s="8"/>
+      <c r="BH45" s="8"/>
+      <c r="BI45" s="8"/>
+      <c r="BJ45" s="8"/>
+      <c r="BK45" s="8"/>
+      <c r="BL45" s="8"/>
       <c r="BM45" s="8"/>
       <c r="BN45" s="8"/>
+      <c r="BO45" s="8"/>
+      <c r="BP45" s="8"/>
+      <c r="BQ45" s="8"/>
       <c r="BR45" s="8"/>
+      <c r="BS45" s="8"/>
       <c r="BT45" s="8"/>
       <c r="BU45" s="8"/>
+      <c r="BV45" s="8"/>
+      <c r="BW45" s="8"/>
+      <c r="BX45" s="8"/>
+      <c r="BY45" s="8"/>
+      <c r="BZ45" s="8"/>
       <c r="CA45" s="8"/>
       <c r="CB45" s="8"/>
+      <c r="CC45" s="8"/>
+      <c r="CD45" s="8"/>
       <c r="CE45" s="8"/>
+      <c r="CF45" s="8"/>
+      <c r="CG45" s="8"/>
       <c r="CH45" s="8"/>
       <c r="CI45" s="8"/>
+      <c r="CJ45" s="8"/>
+      <c r="CK45" s="8"/>
+      <c r="CL45" s="8"/>
+      <c r="CM45" s="8"/>
+      <c r="CN45" s="8"/>
       <c r="CO45" s="8"/>
       <c r="CP45" s="8"/>
+      <c r="CQ45" s="8"/>
       <c r="CV45" s="12"/>
       <c r="CW45" s="12"/>
       <c r="DC45" s="12"/>
@@ -6452,14 +6480,14 @@
     </row>
     <row r="46" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="49"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="48"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="W46" s="8"/>
@@ -6469,6 +6497,7 @@
       <c r="AK46" s="8"/>
       <c r="AL46" s="8"/>
       <c r="AP46" s="8"/>
+      <c r="AQ46" s="12"/>
       <c r="AR46" s="8"/>
       <c r="AS46" s="8"/>
       <c r="AY46" s="8"/>
@@ -6508,96 +6537,41 @@
     </row>
     <row r="47" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="48"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="49"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="8"/>
-      <c r="AH47" s="8"/>
-      <c r="AI47" s="8"/>
-      <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
       <c r="AL47" s="8"/>
-      <c r="AM47" s="8"/>
-      <c r="AN47" s="8"/>
-      <c r="AO47" s="8"/>
       <c r="AP47" s="8"/>
-      <c r="AQ47" s="8"/>
       <c r="AR47" s="8"/>
       <c r="AS47" s="8"/>
-      <c r="AT47" s="8"/>
-      <c r="AU47" s="8"/>
-      <c r="AV47" s="8"/>
-      <c r="AW47" s="8"/>
-      <c r="AX47" s="8"/>
       <c r="AY47" s="8"/>
       <c r="AZ47" s="8"/>
-      <c r="BA47" s="8"/>
-      <c r="BB47" s="8"/>
-      <c r="BC47" s="8"/>
-      <c r="BD47" s="8"/>
-      <c r="BE47" s="8"/>
       <c r="BF47" s="8"/>
       <c r="BG47" s="8"/>
-      <c r="BH47" s="8"/>
-      <c r="BI47" s="8"/>
-      <c r="BJ47" s="8"/>
-      <c r="BK47" s="8"/>
-      <c r="BL47" s="8"/>
       <c r="BM47" s="8"/>
       <c r="BN47" s="8"/>
-      <c r="BO47" s="8"/>
-      <c r="BP47" s="8"/>
-      <c r="BQ47" s="8"/>
       <c r="BR47" s="8"/>
-      <c r="BS47" s="8"/>
       <c r="BT47" s="8"/>
       <c r="BU47" s="8"/>
-      <c r="BV47" s="8"/>
-      <c r="BW47" s="8"/>
-      <c r="BX47" s="8"/>
-      <c r="BY47" s="8"/>
-      <c r="BZ47" s="8"/>
       <c r="CA47" s="8"/>
       <c r="CB47" s="8"/>
-      <c r="CC47" s="8"/>
-      <c r="CD47" s="8"/>
       <c r="CE47" s="8"/>
-      <c r="CF47" s="8"/>
-      <c r="CG47" s="8"/>
       <c r="CH47" s="8"/>
       <c r="CI47" s="8"/>
-      <c r="CJ47" s="8"/>
-      <c r="CK47" s="8"/>
-      <c r="CL47" s="8"/>
-      <c r="CM47" s="8"/>
-      <c r="CN47" s="8"/>
       <c r="CO47" s="8"/>
       <c r="CP47" s="8"/>
-      <c r="CQ47" s="8"/>
       <c r="CV47" s="12"/>
       <c r="CW47" s="12"/>
       <c r="DC47" s="12"/>
@@ -6624,9 +6598,11 @@
       <c r="E48" s="9"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="50"/>
+      <c r="H48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="38"/>
+      <c r="J48" s="48"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
@@ -6734,37 +6710,88 @@
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
       <c r="H49" s="15"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="48"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="50"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
       <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
       <c r="AL49" s="8"/>
       <c r="AM49" s="8"/>
+      <c r="AN49" s="8"/>
+      <c r="AO49" s="8"/>
       <c r="AP49" s="8"/>
+      <c r="AQ49" s="8"/>
       <c r="AR49" s="8"/>
       <c r="AS49" s="8"/>
+      <c r="AT49" s="8"/>
+      <c r="AU49" s="8"/>
+      <c r="AV49" s="8"/>
+      <c r="AW49" s="8"/>
+      <c r="AX49" s="8"/>
       <c r="AY49" s="8"/>
       <c r="AZ49" s="8"/>
+      <c r="BA49" s="8"/>
+      <c r="BB49" s="8"/>
+      <c r="BC49" s="8"/>
+      <c r="BD49" s="8"/>
+      <c r="BE49" s="8"/>
       <c r="BF49" s="8"/>
       <c r="BG49" s="8"/>
+      <c r="BH49" s="8"/>
+      <c r="BI49" s="8"/>
+      <c r="BJ49" s="8"/>
+      <c r="BK49" s="8"/>
+      <c r="BL49" s="8"/>
       <c r="BM49" s="8"/>
       <c r="BN49" s="8"/>
+      <c r="BO49" s="8"/>
+      <c r="BP49" s="8"/>
+      <c r="BQ49" s="8"/>
       <c r="BR49" s="8"/>
+      <c r="BS49" s="8"/>
       <c r="BT49" s="8"/>
       <c r="BU49" s="8"/>
+      <c r="BV49" s="8"/>
+      <c r="BW49" s="8"/>
+      <c r="BX49" s="8"/>
+      <c r="BY49" s="8"/>
+      <c r="BZ49" s="8"/>
       <c r="CA49" s="8"/>
       <c r="CB49" s="8"/>
+      <c r="CC49" s="8"/>
+      <c r="CD49" s="8"/>
       <c r="CE49" s="8"/>
+      <c r="CF49" s="8"/>
+      <c r="CG49" s="8"/>
       <c r="CH49" s="8"/>
       <c r="CI49" s="8"/>
+      <c r="CJ49" s="8"/>
+      <c r="CK49" s="8"/>
+      <c r="CL49" s="8"/>
+      <c r="CM49" s="8"/>
+      <c r="CN49" s="8"/>
       <c r="CO49" s="8"/>
       <c r="CP49" s="8"/>
+      <c r="CQ49" s="8"/>
       <c r="CV49" s="12"/>
       <c r="CW49" s="12"/>
       <c r="DC49" s="12"/>
@@ -6804,7 +6831,6 @@
       <c r="AK50" s="8"/>
       <c r="AL50" s="8"/>
       <c r="AM50" s="8"/>
-      <c r="AN50" s="8"/>
       <c r="AP50" s="8"/>
       <c r="AR50" s="8"/>
       <c r="AS50" s="8"/>
@@ -6859,65 +6885,30 @@
       <c r="X51" s="8"/>
       <c r="AD51" s="8"/>
       <c r="AE51" s="8"/>
+      <c r="AJ51" s="8"/>
       <c r="AK51" s="8"/>
       <c r="AL51" s="8"/>
       <c r="AM51" s="8"/>
       <c r="AN51" s="8"/>
-      <c r="AO51" s="8"/>
       <c r="AP51" s="8"/>
-      <c r="AQ51" s="8"/>
       <c r="AR51" s="8"/>
       <c r="AS51" s="8"/>
-      <c r="AT51" s="8"/>
-      <c r="AU51" s="8"/>
-      <c r="AV51" s="8"/>
-      <c r="AW51" s="8"/>
-      <c r="AX51" s="8"/>
       <c r="AY51" s="8"/>
       <c r="AZ51" s="8"/>
-      <c r="BA51" s="8"/>
-      <c r="BB51" s="8"/>
-      <c r="BC51" s="8"/>
-      <c r="BD51" s="8"/>
-      <c r="BE51" s="8"/>
       <c r="BF51" s="8"/>
       <c r="BG51" s="8"/>
-      <c r="BH51" s="8"/>
-      <c r="BI51" s="8"/>
-      <c r="BJ51" s="8"/>
-      <c r="BK51" s="8"/>
-      <c r="BL51" s="8"/>
       <c r="BM51" s="8"/>
       <c r="BN51" s="8"/>
-      <c r="BO51" s="8"/>
-      <c r="BP51" s="8"/>
-      <c r="BQ51" s="8"/>
       <c r="BR51" s="8"/>
-      <c r="BS51" s="8"/>
       <c r="BT51" s="8"/>
       <c r="BU51" s="8"/>
-      <c r="BV51" s="8"/>
-      <c r="BW51" s="8"/>
-      <c r="BX51" s="8"/>
-      <c r="BY51" s="8"/>
-      <c r="BZ51" s="8"/>
       <c r="CA51" s="8"/>
       <c r="CB51" s="8"/>
-      <c r="CC51" s="8"/>
-      <c r="CD51" s="8"/>
       <c r="CE51" s="8"/>
-      <c r="CF51" s="8"/>
-      <c r="CG51" s="8"/>
       <c r="CH51" s="8"/>
       <c r="CI51" s="8"/>
-      <c r="CJ51" s="8"/>
-      <c r="CK51" s="8"/>
-      <c r="CL51" s="8"/>
-      <c r="CM51" s="8"/>
-      <c r="CN51" s="8"/>
       <c r="CO51" s="8"/>
       <c r="CP51" s="8"/>
-      <c r="CQ51" s="8"/>
       <c r="CV51" s="12"/>
       <c r="CW51" s="12"/>
       <c r="DC51" s="12"/>
@@ -7691,14 +7682,14 @@
     </row>
     <row r="60" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="47"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="48"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="W60" s="8"/>
@@ -7785,53 +7776,79 @@
     </row>
     <row r="61" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="48"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="47"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-      <c r="V61" s="8"/>
       <c r="W61" s="8"/>
       <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="8"/>
       <c r="AD61" s="8"/>
       <c r="AE61" s="8"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="8"/>
-      <c r="AH61" s="8"/>
-      <c r="AI61" s="8"/>
-      <c r="AJ61" s="8"/>
       <c r="AK61" s="8"/>
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="8"/>
       <c r="AP61" s="8"/>
+      <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
       <c r="AS61" s="8"/>
+      <c r="AT61" s="8"/>
+      <c r="AU61" s="8"/>
+      <c r="AV61" s="8"/>
+      <c r="AW61" s="8"/>
+      <c r="AX61" s="8"/>
       <c r="AY61" s="8"/>
       <c r="AZ61" s="8"/>
+      <c r="BA61" s="8"/>
+      <c r="BB61" s="8"/>
+      <c r="BC61" s="8"/>
+      <c r="BD61" s="8"/>
+      <c r="BE61" s="8"/>
       <c r="BF61" s="8"/>
       <c r="BG61" s="8"/>
+      <c r="BH61" s="8"/>
+      <c r="BI61" s="8"/>
+      <c r="BJ61" s="8"/>
+      <c r="BK61" s="8"/>
+      <c r="BL61" s="8"/>
       <c r="BM61" s="8"/>
       <c r="BN61" s="8"/>
+      <c r="BO61" s="8"/>
+      <c r="BP61" s="8"/>
+      <c r="BQ61" s="8"/>
       <c r="BR61" s="8"/>
+      <c r="BS61" s="8"/>
       <c r="BT61" s="8"/>
       <c r="BU61" s="8"/>
+      <c r="BV61" s="8"/>
+      <c r="BW61" s="8"/>
+      <c r="BX61" s="8"/>
+      <c r="BY61" s="8"/>
+      <c r="BZ61" s="8"/>
       <c r="CA61" s="8"/>
       <c r="CB61" s="8"/>
+      <c r="CC61" s="8"/>
+      <c r="CD61" s="8"/>
       <c r="CE61" s="8"/>
+      <c r="CF61" s="8"/>
+      <c r="CG61" s="8"/>
       <c r="CH61" s="8"/>
       <c r="CI61" s="8"/>
+      <c r="CJ61" s="8"/>
+      <c r="CK61" s="8"/>
+      <c r="CL61" s="8"/>
+      <c r="CM61" s="8"/>
+      <c r="CN61" s="8"/>
       <c r="CO61" s="8"/>
       <c r="CP61" s="8"/>
+      <c r="CQ61" s="8"/>
       <c r="CV61" s="12"/>
       <c r="CW61" s="12"/>
       <c r="DC61" s="12"/>
@@ -7853,21 +7870,16 @@
     </row>
     <row r="62" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="47"/>
-      <c r="O62" s="8"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="48"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
       <c r="X62" s="8"/>
@@ -7886,31 +7898,13 @@
       <c r="AK62" s="8"/>
       <c r="AL62" s="8"/>
       <c r="AM62" s="8"/>
-      <c r="AN62" s="8"/>
-      <c r="AO62" s="8"/>
       <c r="AP62" s="8"/>
-      <c r="AQ62" s="8"/>
       <c r="AR62" s="8"/>
       <c r="AS62" s="8"/>
-      <c r="AT62" s="8"/>
-      <c r="AU62" s="8"/>
-      <c r="AV62" s="8"/>
-      <c r="AW62" s="8"/>
-      <c r="AX62" s="8"/>
       <c r="AY62" s="8"/>
       <c r="AZ62" s="8"/>
-      <c r="BA62" s="8"/>
-      <c r="BB62" s="8"/>
-      <c r="BC62" s="8"/>
-      <c r="BD62" s="8"/>
-      <c r="BE62" s="8"/>
       <c r="BF62" s="8"/>
       <c r="BG62" s="8"/>
-      <c r="BH62" s="8"/>
-      <c r="BI62" s="8"/>
-      <c r="BJ62" s="8"/>
-      <c r="BK62" s="8"/>
-      <c r="BL62" s="8"/>
       <c r="BM62" s="8"/>
       <c r="BN62" s="8"/>
       <c r="BR62" s="8"/>
@@ -7944,18 +7938,14 @@
     </row>
     <row r="63" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="9"/>
       <c r="I63" s="37"/>
       <c r="J63" s="47"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
@@ -7990,10 +7980,22 @@
       <c r="AT63" s="8"/>
       <c r="AU63" s="8"/>
       <c r="AV63" s="8"/>
+      <c r="AW63" s="8"/>
+      <c r="AX63" s="8"/>
       <c r="AY63" s="8"/>
       <c r="AZ63" s="8"/>
+      <c r="BA63" s="8"/>
+      <c r="BB63" s="8"/>
+      <c r="BC63" s="8"/>
+      <c r="BD63" s="8"/>
+      <c r="BE63" s="8"/>
       <c r="BF63" s="8"/>
       <c r="BG63" s="8"/>
+      <c r="BH63" s="8"/>
+      <c r="BI63" s="8"/>
+      <c r="BJ63" s="8"/>
+      <c r="BK63" s="8"/>
+      <c r="BL63" s="8"/>
       <c r="BM63" s="8"/>
       <c r="BN63" s="8"/>
       <c r="BR63" s="8"/>
@@ -8027,14 +8029,14 @@
     </row>
     <row r="64" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="48"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="47"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
@@ -8073,53 +8075,22 @@
       <c r="AT64" s="8"/>
       <c r="AU64" s="8"/>
       <c r="AV64" s="8"/>
-      <c r="AW64" s="8"/>
-      <c r="AX64" s="8"/>
       <c r="AY64" s="8"/>
       <c r="AZ64" s="8"/>
-      <c r="BA64" s="8"/>
-      <c r="BB64" s="8"/>
-      <c r="BC64" s="8"/>
-      <c r="BD64" s="8"/>
-      <c r="BE64" s="8"/>
       <c r="BF64" s="8"/>
       <c r="BG64" s="8"/>
-      <c r="BH64" s="8"/>
-      <c r="BI64" s="8"/>
-      <c r="BJ64" s="8"/>
-      <c r="BK64" s="8"/>
-      <c r="BL64" s="8"/>
       <c r="BM64" s="8"/>
       <c r="BN64" s="8"/>
-      <c r="BO64" s="8"/>
-      <c r="BP64" s="8"/>
-      <c r="BQ64" s="8"/>
       <c r="BR64" s="8"/>
-      <c r="BS64" s="8"/>
       <c r="BT64" s="8"/>
       <c r="BU64" s="8"/>
-      <c r="BV64" s="8"/>
-      <c r="BW64" s="8"/>
-      <c r="BX64" s="8"/>
-      <c r="BY64" s="8"/>
-      <c r="BZ64" s="8"/>
       <c r="CA64" s="8"/>
       <c r="CB64" s="8"/>
-      <c r="CC64" s="8"/>
-      <c r="CD64" s="8"/>
       <c r="CE64" s="8"/>
-      <c r="CF64" s="8"/>
-      <c r="CG64" s="8"/>
       <c r="CH64" s="8"/>
       <c r="CI64" s="8"/>
-      <c r="CJ64" s="8"/>
-      <c r="CK64" s="8"/>
-      <c r="CL64" s="8"/>
-      <c r="CM64" s="8"/>
-      <c r="CN64" s="8"/>
       <c r="CO64" s="8"/>
       <c r="CP64" s="8"/>
-      <c r="CQ64" s="8"/>
       <c r="CV64" s="12"/>
       <c r="CW64" s="12"/>
       <c r="DC64" s="12"/>
@@ -8146,15 +8117,33 @@
       <c r="E65" s="9"/>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="47"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
       <c r="W65" s="8"/>
       <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
       <c r="AD65" s="8"/>
       <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
       <c r="AI65" s="8"/>
       <c r="AJ65" s="8"/>
       <c r="AK65" s="8"/>
@@ -8331,45 +8320,83 @@
       <c r="ET66" s="12"/>
       <c r="EZ66" s="12"/>
     </row>
-    <row r="67" spans="2:156" ht="18" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="32"/>
       <c r="D67" s="32"/>
       <c r="E67" s="9"/>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="48"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="47"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="W67" s="8"/>
       <c r="X67" s="8"/>
       <c r="AD67" s="8"/>
       <c r="AE67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
       <c r="AK67" s="8"/>
       <c r="AL67" s="8"/>
+      <c r="AM67" s="8"/>
+      <c r="AN67" s="8"/>
+      <c r="AO67" s="8"/>
       <c r="AP67" s="8"/>
+      <c r="AQ67" s="8"/>
       <c r="AR67" s="8"/>
       <c r="AS67" s="8"/>
+      <c r="AT67" s="8"/>
+      <c r="AU67" s="8"/>
+      <c r="AV67" s="8"/>
+      <c r="AW67" s="8"/>
+      <c r="AX67" s="8"/>
       <c r="AY67" s="8"/>
       <c r="AZ67" s="8"/>
+      <c r="BA67" s="8"/>
+      <c r="BB67" s="8"/>
+      <c r="BC67" s="8"/>
+      <c r="BD67" s="8"/>
+      <c r="BE67" s="8"/>
       <c r="BF67" s="8"/>
       <c r="BG67" s="8"/>
+      <c r="BH67" s="8"/>
+      <c r="BI67" s="8"/>
+      <c r="BJ67" s="8"/>
+      <c r="BK67" s="8"/>
+      <c r="BL67" s="8"/>
       <c r="BM67" s="8"/>
       <c r="BN67" s="8"/>
+      <c r="BO67" s="8"/>
+      <c r="BP67" s="8"/>
+      <c r="BQ67" s="8"/>
       <c r="BR67" s="8"/>
+      <c r="BS67" s="8"/>
       <c r="BT67" s="8"/>
       <c r="BU67" s="8"/>
+      <c r="BV67" s="8"/>
+      <c r="BW67" s="8"/>
+      <c r="BX67" s="8"/>
+      <c r="BY67" s="8"/>
+      <c r="BZ67" s="8"/>
       <c r="CA67" s="8"/>
       <c r="CB67" s="8"/>
+      <c r="CC67" s="8"/>
+      <c r="CD67" s="8"/>
       <c r="CE67" s="8"/>
+      <c r="CF67" s="8"/>
+      <c r="CG67" s="8"/>
       <c r="CH67" s="8"/>
       <c r="CI67" s="8"/>
+      <c r="CJ67" s="8"/>
+      <c r="CK67" s="8"/>
+      <c r="CL67" s="8"/>
+      <c r="CM67" s="8"/>
+      <c r="CN67" s="8"/>
       <c r="CO67" s="8"/>
       <c r="CP67" s="8"/>
-      <c r="CQ67" s="12"/>
-      <c r="CR67" s="12"/>
+      <c r="CQ67" s="8"/>
       <c r="CV67" s="12"/>
       <c r="CW67" s="12"/>
       <c r="DC67" s="12"/>
@@ -8389,218 +8416,219 @@
       <c r="ET67" s="12"/>
       <c r="EZ67" s="12"/>
     </row>
-    <row r="68" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:156" ht="18" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="48"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
       <c r="W68" s="8"/>
       <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="8"/>
-      <c r="AC68" s="8"/>
       <c r="AD68" s="8"/>
       <c r="AE68" s="8"/>
-      <c r="AF68" s="8"/>
-      <c r="AG68" s="8"/>
-      <c r="AH68" s="8"/>
-      <c r="AI68" s="8"/>
-      <c r="AJ68" s="8"/>
       <c r="AK68" s="8"/>
       <c r="AL68" s="8"/>
-      <c r="AM68" s="8"/>
-      <c r="AN68" s="8"/>
-      <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
-      <c r="AQ68" s="8"/>
       <c r="AR68" s="8"/>
       <c r="AS68" s="8"/>
-      <c r="AT68" s="8"/>
-      <c r="AU68" s="8"/>
-      <c r="AV68" s="8"/>
-      <c r="AW68" s="8"/>
-      <c r="AX68" s="8"/>
       <c r="AY68" s="8"/>
       <c r="AZ68" s="8"/>
-      <c r="BA68" s="8"/>
-      <c r="BB68" s="8"/>
-      <c r="BC68" s="8"/>
-      <c r="BD68" s="8"/>
-      <c r="BE68" s="8"/>
       <c r="BF68" s="8"/>
       <c r="BG68" s="8"/>
-      <c r="BH68" s="8"/>
-      <c r="BI68" s="8"/>
-      <c r="BJ68" s="8"/>
-      <c r="BK68" s="8"/>
-      <c r="BL68" s="8"/>
       <c r="BM68" s="8"/>
       <c r="BN68" s="8"/>
-      <c r="BO68" s="8"/>
-      <c r="BP68" s="8"/>
-      <c r="BQ68" s="8"/>
       <c r="BR68" s="8"/>
-      <c r="BS68" s="8"/>
       <c r="BT68" s="8"/>
       <c r="BU68" s="8"/>
-      <c r="BV68" s="8"/>
-      <c r="BW68" s="8"/>
-      <c r="BX68" s="8"/>
-      <c r="BY68" s="8"/>
-      <c r="BZ68" s="8"/>
       <c r="CA68" s="8"/>
       <c r="CB68" s="8"/>
-      <c r="CC68" s="8"/>
-      <c r="CD68" s="8"/>
       <c r="CE68" s="8"/>
-      <c r="CF68" s="8"/>
-      <c r="CG68" s="8"/>
       <c r="CH68" s="8"/>
       <c r="CI68" s="8"/>
-      <c r="CJ68" s="8"/>
-      <c r="CK68" s="8"/>
-      <c r="CL68" s="8"/>
-      <c r="CM68" s="8"/>
-      <c r="CN68" s="8"/>
       <c r="CO68" s="8"/>
       <c r="CP68" s="8"/>
-      <c r="CQ68" s="8"/>
+      <c r="CQ68" s="12"/>
       <c r="CR68" s="12"/>
-      <c r="CS68" s="12"/>
-      <c r="CT68" s="12"/>
-      <c r="CU68" s="12"/>
       <c r="CV68" s="12"/>
       <c r="CW68" s="12"/>
-      <c r="CX68" s="12"/>
-      <c r="CY68" s="12"/>
-      <c r="CZ68" s="12"/>
-      <c r="DA68" s="12"/>
-      <c r="DB68" s="12"/>
       <c r="DC68" s="12"/>
       <c r="DD68" s="12"/>
-      <c r="DE68" s="12"/>
-      <c r="DF68" s="12"/>
-      <c r="DG68" s="12"/>
-      <c r="DH68" s="12"/>
       <c r="DI68" s="12"/>
       <c r="DJ68" s="12"/>
       <c r="DK68" s="12"/>
-      <c r="DL68" s="12"/>
-      <c r="DM68" s="12"/>
-      <c r="DN68" s="12"/>
-      <c r="DO68" s="12"/>
-      <c r="DP68" s="12"/>
       <c r="DQ68" s="12"/>
       <c r="DR68" s="12"/>
-      <c r="DS68" s="12"/>
-      <c r="DT68" s="12"/>
-      <c r="DU68" s="12"/>
-      <c r="DV68" s="12"/>
-      <c r="DW68" s="12"/>
       <c r="DX68" s="12"/>
       <c r="DY68" s="12"/>
-      <c r="DZ68" s="12"/>
-      <c r="EA68" s="12"/>
-      <c r="EB68" s="12"/>
-      <c r="EC68" s="12"/>
-      <c r="ED68" s="12"/>
       <c r="EE68" s="12"/>
       <c r="EF68" s="12"/>
-      <c r="EG68" s="12"/>
-      <c r="EH68" s="12"/>
-      <c r="EI68" s="12"/>
-      <c r="EJ68" s="12"/>
-      <c r="EK68" s="12"/>
       <c r="EL68" s="12"/>
       <c r="EM68" s="12"/>
-      <c r="EN68" s="12"/>
-      <c r="EO68" s="12"/>
-      <c r="EP68" s="12"/>
-      <c r="EQ68" s="12"/>
-      <c r="ER68" s="12"/>
       <c r="ES68" s="12"/>
       <c r="ET68" s="12"/>
-      <c r="EU68" s="12"/>
-      <c r="EV68" s="12"/>
-      <c r="EW68" s="12"/>
-      <c r="EX68" s="12"/>
-      <c r="EY68" s="12"/>
       <c r="EZ68" s="12"/>
     </row>
     <row r="69" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="44"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
       <c r="W69" s="8"/>
       <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
       <c r="AD69" s="8"/>
       <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
       <c r="AK69" s="8"/>
       <c r="AL69" s="8"/>
+      <c r="AM69" s="8"/>
+      <c r="AN69" s="8"/>
+      <c r="AO69" s="8"/>
       <c r="AP69" s="8"/>
+      <c r="AQ69" s="8"/>
       <c r="AR69" s="8"/>
       <c r="AS69" s="8"/>
+      <c r="AT69" s="8"/>
+      <c r="AU69" s="8"/>
+      <c r="AV69" s="8"/>
+      <c r="AW69" s="8"/>
+      <c r="AX69" s="8"/>
       <c r="AY69" s="8"/>
       <c r="AZ69" s="8"/>
+      <c r="BA69" s="8"/>
+      <c r="BB69" s="8"/>
+      <c r="BC69" s="8"/>
+      <c r="BD69" s="8"/>
+      <c r="BE69" s="8"/>
       <c r="BF69" s="8"/>
       <c r="BG69" s="8"/>
+      <c r="BH69" s="8"/>
+      <c r="BI69" s="8"/>
+      <c r="BJ69" s="8"/>
+      <c r="BK69" s="8"/>
+      <c r="BL69" s="8"/>
       <c r="BM69" s="8"/>
       <c r="BN69" s="8"/>
+      <c r="BO69" s="8"/>
+      <c r="BP69" s="8"/>
+      <c r="BQ69" s="8"/>
       <c r="BR69" s="8"/>
+      <c r="BS69" s="8"/>
       <c r="BT69" s="8"/>
       <c r="BU69" s="8"/>
+      <c r="BV69" s="8"/>
+      <c r="BW69" s="8"/>
+      <c r="BX69" s="8"/>
+      <c r="BY69" s="8"/>
+      <c r="BZ69" s="8"/>
       <c r="CA69" s="8"/>
       <c r="CB69" s="8"/>
+      <c r="CC69" s="8"/>
+      <c r="CD69" s="8"/>
       <c r="CE69" s="8"/>
+      <c r="CF69" s="8"/>
+      <c r="CG69" s="8"/>
       <c r="CH69" s="8"/>
       <c r="CI69" s="8"/>
+      <c r="CJ69" s="8"/>
+      <c r="CK69" s="8"/>
+      <c r="CL69" s="8"/>
+      <c r="CM69" s="8"/>
+      <c r="CN69" s="8"/>
       <c r="CO69" s="8"/>
       <c r="CP69" s="8"/>
+      <c r="CQ69" s="8"/>
+      <c r="CR69" s="12"/>
       <c r="CS69" s="12"/>
+      <c r="CT69" s="12"/>
+      <c r="CU69" s="12"/>
       <c r="CV69" s="12"/>
       <c r="CW69" s="12"/>
+      <c r="CX69" s="12"/>
+      <c r="CY69" s="12"/>
+      <c r="CZ69" s="12"/>
+      <c r="DA69" s="12"/>
+      <c r="DB69" s="12"/>
       <c r="DC69" s="12"/>
       <c r="DD69" s="12"/>
+      <c r="DE69" s="12"/>
+      <c r="DF69" s="12"/>
+      <c r="DG69" s="12"/>
+      <c r="DH69" s="12"/>
       <c r="DI69" s="12"/>
       <c r="DJ69" s="12"/>
       <c r="DK69" s="12"/>
+      <c r="DL69" s="12"/>
+      <c r="DM69" s="12"/>
+      <c r="DN69" s="12"/>
+      <c r="DO69" s="12"/>
+      <c r="DP69" s="12"/>
       <c r="DQ69" s="12"/>
       <c r="DR69" s="12"/>
+      <c r="DS69" s="12"/>
+      <c r="DT69" s="12"/>
+      <c r="DU69" s="12"/>
+      <c r="DV69" s="12"/>
+      <c r="DW69" s="12"/>
       <c r="DX69" s="12"/>
       <c r="DY69" s="12"/>
+      <c r="DZ69" s="12"/>
+      <c r="EA69" s="12"/>
+      <c r="EB69" s="12"/>
+      <c r="EC69" s="12"/>
+      <c r="ED69" s="12"/>
       <c r="EE69" s="12"/>
       <c r="EF69" s="12"/>
+      <c r="EG69" s="12"/>
+      <c r="EH69" s="12"/>
+      <c r="EI69" s="12"/>
+      <c r="EJ69" s="12"/>
+      <c r="EK69" s="12"/>
       <c r="EL69" s="12"/>
       <c r="EM69" s="12"/>
+      <c r="EN69" s="12"/>
+      <c r="EO69" s="12"/>
+      <c r="EP69" s="12"/>
+      <c r="EQ69" s="12"/>
+      <c r="ER69" s="12"/>
       <c r="ES69" s="12"/>
       <c r="ET69" s="12"/>
+      <c r="EU69" s="12"/>
+      <c r="EV69" s="12"/>
+      <c r="EW69" s="12"/>
+      <c r="EX69" s="12"/>
+      <c r="EY69" s="12"/>
       <c r="EZ69" s="12"/>
     </row>
     <row r="70" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8619,74 +8647,30 @@
       <c r="X70" s="8"/>
       <c r="AD70" s="8"/>
       <c r="AE70" s="8"/>
-      <c r="AI70" s="8"/>
-      <c r="AJ70" s="8"/>
       <c r="AK70" s="8"/>
       <c r="AL70" s="8"/>
-      <c r="AM70" s="8"/>
-      <c r="AN70" s="8"/>
-      <c r="AO70" s="8"/>
       <c r="AP70" s="8"/>
-      <c r="AQ70" s="8"/>
       <c r="AR70" s="8"/>
       <c r="AS70" s="8"/>
-      <c r="AT70" s="8"/>
-      <c r="AU70" s="8"/>
-      <c r="AV70" s="8"/>
-      <c r="AW70" s="8"/>
-      <c r="AX70" s="8"/>
       <c r="AY70" s="8"/>
       <c r="AZ70" s="8"/>
-      <c r="BA70" s="8"/>
-      <c r="BB70" s="8"/>
-      <c r="BC70" s="8"/>
-      <c r="BD70" s="8"/>
-      <c r="BE70" s="8"/>
       <c r="BF70" s="8"/>
       <c r="BG70" s="8"/>
-      <c r="BH70" s="8"/>
-      <c r="BI70" s="8"/>
-      <c r="BJ70" s="8"/>
-      <c r="BK70" s="8"/>
-      <c r="BL70" s="8"/>
       <c r="BM70" s="8"/>
       <c r="BN70" s="8"/>
-      <c r="BO70" s="8"/>
-      <c r="BP70" s="8"/>
-      <c r="BQ70" s="8"/>
       <c r="BR70" s="8"/>
-      <c r="BS70" s="8"/>
       <c r="BT70" s="8"/>
       <c r="BU70" s="8"/>
-      <c r="BV70" s="8"/>
-      <c r="BW70" s="8"/>
-      <c r="BX70" s="8"/>
-      <c r="BY70" s="8"/>
-      <c r="BZ70" s="8"/>
       <c r="CA70" s="8"/>
       <c r="CB70" s="8"/>
-      <c r="CC70" s="8"/>
-      <c r="CD70" s="8"/>
       <c r="CE70" s="8"/>
-      <c r="CF70" s="8"/>
-      <c r="CG70" s="8"/>
       <c r="CH70" s="8"/>
       <c r="CI70" s="8"/>
-      <c r="CJ70" s="8"/>
-      <c r="CK70" s="8"/>
-      <c r="CL70" s="8"/>
-      <c r="CM70" s="8"/>
-      <c r="CN70" s="8"/>
       <c r="CO70" s="8"/>
       <c r="CP70" s="8"/>
-      <c r="CQ70" s="8"/>
       <c r="CS70" s="12"/>
-      <c r="CT70" s="12"/>
-      <c r="CU70" s="12"/>
       <c r="CV70" s="12"/>
       <c r="CW70" s="12"/>
-      <c r="CX70" s="12"/>
-      <c r="CY70" s="12"/>
       <c r="DC70" s="12"/>
       <c r="DD70" s="12"/>
       <c r="DI70" s="12"/>
@@ -8706,11 +8690,11 @@
     </row>
     <row r="71" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="9"/>
       <c r="I71" s="11"/>
       <c r="J71" s="44"/>
@@ -8781,10 +8765,13 @@
       <c r="CO71" s="8"/>
       <c r="CP71" s="8"/>
       <c r="CQ71" s="8"/>
+      <c r="CS71" s="12"/>
       <c r="CT71" s="12"/>
       <c r="CU71" s="12"/>
       <c r="CV71" s="12"/>
       <c r="CW71" s="12"/>
+      <c r="CX71" s="12"/>
+      <c r="CY71" s="12"/>
       <c r="DC71" s="12"/>
       <c r="DD71" s="12"/>
       <c r="DI71" s="12"/>
@@ -8879,9 +8866,10 @@
       <c r="CO72" s="8"/>
       <c r="CP72" s="8"/>
       <c r="CQ72" s="8"/>
+      <c r="CT72" s="12"/>
+      <c r="CU72" s="12"/>
       <c r="CV72" s="12"/>
       <c r="CW72" s="12"/>
-      <c r="CX72" s="12"/>
       <c r="DC72" s="12"/>
       <c r="DD72" s="12"/>
       <c r="DI72" s="12"/>
@@ -8978,7 +8966,7 @@
       <c r="CQ73" s="8"/>
       <c r="CV73" s="12"/>
       <c r="CW73" s="12"/>
-      <c r="CY73" s="12"/>
+      <c r="CX73" s="12"/>
       <c r="DC73" s="12"/>
       <c r="DD73" s="12"/>
       <c r="DI73" s="12"/>
@@ -8998,11 +8986,11 @@
     </row>
     <row r="74" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
       <c r="H74" s="9"/>
       <c r="I74" s="11"/>
       <c r="J74" s="44"/>
@@ -9012,30 +9000,70 @@
       <c r="X74" s="8"/>
       <c r="AD74" s="8"/>
       <c r="AE74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
       <c r="AK74" s="8"/>
       <c r="AL74" s="8"/>
+      <c r="AM74" s="8"/>
+      <c r="AN74" s="8"/>
+      <c r="AO74" s="8"/>
       <c r="AP74" s="8"/>
+      <c r="AQ74" s="8"/>
       <c r="AR74" s="8"/>
       <c r="AS74" s="8"/>
+      <c r="AT74" s="8"/>
+      <c r="AU74" s="8"/>
+      <c r="AV74" s="8"/>
+      <c r="AW74" s="8"/>
+      <c r="AX74" s="8"/>
       <c r="AY74" s="8"/>
       <c r="AZ74" s="8"/>
+      <c r="BA74" s="8"/>
+      <c r="BB74" s="8"/>
+      <c r="BC74" s="8"/>
+      <c r="BD74" s="8"/>
+      <c r="BE74" s="8"/>
       <c r="BF74" s="8"/>
       <c r="BG74" s="8"/>
+      <c r="BH74" s="8"/>
+      <c r="BI74" s="8"/>
+      <c r="BJ74" s="8"/>
+      <c r="BK74" s="8"/>
+      <c r="BL74" s="8"/>
       <c r="BM74" s="8"/>
       <c r="BN74" s="8"/>
+      <c r="BO74" s="8"/>
+      <c r="BP74" s="8"/>
+      <c r="BQ74" s="8"/>
       <c r="BR74" s="8"/>
+      <c r="BS74" s="8"/>
       <c r="BT74" s="8"/>
       <c r="BU74" s="8"/>
+      <c r="BV74" s="8"/>
+      <c r="BW74" s="8"/>
+      <c r="BX74" s="8"/>
+      <c r="BY74" s="8"/>
+      <c r="BZ74" s="8"/>
       <c r="CA74" s="8"/>
       <c r="CB74" s="8"/>
+      <c r="CC74" s="8"/>
+      <c r="CD74" s="8"/>
       <c r="CE74" s="8"/>
+      <c r="CF74" s="8"/>
+      <c r="CG74" s="8"/>
       <c r="CH74" s="8"/>
       <c r="CI74" s="8"/>
+      <c r="CJ74" s="8"/>
+      <c r="CK74" s="8"/>
+      <c r="CL74" s="8"/>
+      <c r="CM74" s="8"/>
+      <c r="CN74" s="8"/>
       <c r="CO74" s="8"/>
       <c r="CP74" s="8"/>
-      <c r="CS74" s="12"/>
+      <c r="CQ74" s="8"/>
       <c r="CV74" s="12"/>
       <c r="CW74" s="12"/>
+      <c r="CY74" s="12"/>
       <c r="DC74" s="12"/>
       <c r="DD74" s="12"/>
       <c r="DI74" s="12"/>
@@ -9090,7 +9118,7 @@
       <c r="CI75" s="8"/>
       <c r="CO75" s="8"/>
       <c r="CP75" s="8"/>
-      <c r="CT75" s="12"/>
+      <c r="CS75" s="12"/>
       <c r="CV75" s="12"/>
       <c r="CW75" s="12"/>
       <c r="DC75" s="12"/>
@@ -9147,6 +9175,7 @@
       <c r="CI76" s="8"/>
       <c r="CO76" s="8"/>
       <c r="CP76" s="8"/>
+      <c r="CT76" s="12"/>
       <c r="CV76" s="12"/>
       <c r="CW76" s="12"/>
       <c r="DC76" s="12"/>
@@ -9168,11 +9197,11 @@
     </row>
     <row r="77" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="9"/>
       <c r="I77" s="11"/>
       <c r="J77" s="44"/>
@@ -9182,67 +9211,27 @@
       <c r="X77" s="8"/>
       <c r="AD77" s="8"/>
       <c r="AE77" s="8"/>
-      <c r="AI77" s="8"/>
-      <c r="AJ77" s="8"/>
       <c r="AK77" s="8"/>
       <c r="AL77" s="8"/>
-      <c r="AM77" s="8"/>
-      <c r="AN77" s="8"/>
-      <c r="AO77" s="8"/>
       <c r="AP77" s="8"/>
-      <c r="AQ77" s="8"/>
       <c r="AR77" s="8"/>
       <c r="AS77" s="8"/>
-      <c r="AT77" s="8"/>
-      <c r="AU77" s="8"/>
-      <c r="AV77" s="8"/>
-      <c r="AW77" s="8"/>
-      <c r="AX77" s="8"/>
       <c r="AY77" s="8"/>
       <c r="AZ77" s="8"/>
-      <c r="BA77" s="8"/>
-      <c r="BB77" s="8"/>
-      <c r="BC77" s="8"/>
-      <c r="BD77" s="8"/>
-      <c r="BE77" s="8"/>
       <c r="BF77" s="8"/>
       <c r="BG77" s="8"/>
-      <c r="BH77" s="8"/>
-      <c r="BI77" s="8"/>
-      <c r="BJ77" s="8"/>
-      <c r="BK77" s="8"/>
-      <c r="BL77" s="8"/>
       <c r="BM77" s="8"/>
       <c r="BN77" s="8"/>
-      <c r="BO77" s="8"/>
-      <c r="BP77" s="8"/>
-      <c r="BQ77" s="8"/>
       <c r="BR77" s="8"/>
-      <c r="BS77" s="8"/>
       <c r="BT77" s="8"/>
       <c r="BU77" s="8"/>
-      <c r="BV77" s="8"/>
-      <c r="BW77" s="8"/>
-      <c r="BX77" s="8"/>
-      <c r="BY77" s="8"/>
-      <c r="BZ77" s="8"/>
       <c r="CA77" s="8"/>
       <c r="CB77" s="8"/>
-      <c r="CC77" s="8"/>
-      <c r="CD77" s="8"/>
       <c r="CE77" s="8"/>
-      <c r="CF77" s="8"/>
-      <c r="CG77" s="8"/>
       <c r="CH77" s="8"/>
       <c r="CI77" s="8"/>
-      <c r="CJ77" s="8"/>
-      <c r="CK77" s="8"/>
-      <c r="CL77" s="8"/>
-      <c r="CM77" s="8"/>
-      <c r="CN77" s="8"/>
       <c r="CO77" s="8"/>
       <c r="CP77" s="8"/>
-      <c r="CQ77" s="8"/>
       <c r="CV77" s="12"/>
       <c r="CW77" s="12"/>
       <c r="DC77" s="12"/>
@@ -9264,11 +9253,11 @@
     </row>
     <row r="78" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
       <c r="H78" s="9"/>
       <c r="I78" s="11"/>
       <c r="J78" s="44"/>
@@ -9278,29 +9267,67 @@
       <c r="X78" s="8"/>
       <c r="AD78" s="8"/>
       <c r="AE78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
       <c r="AK78" s="8"/>
       <c r="AL78" s="8"/>
+      <c r="AM78" s="8"/>
+      <c r="AN78" s="8"/>
+      <c r="AO78" s="8"/>
       <c r="AP78" s="8"/>
+      <c r="AQ78" s="8"/>
       <c r="AR78" s="8"/>
       <c r="AS78" s="8"/>
+      <c r="AT78" s="8"/>
+      <c r="AU78" s="8"/>
+      <c r="AV78" s="8"/>
+      <c r="AW78" s="8"/>
+      <c r="AX78" s="8"/>
       <c r="AY78" s="8"/>
       <c r="AZ78" s="8"/>
+      <c r="BA78" s="8"/>
+      <c r="BB78" s="8"/>
+      <c r="BC78" s="8"/>
+      <c r="BD78" s="8"/>
+      <c r="BE78" s="8"/>
       <c r="BF78" s="8"/>
       <c r="BG78" s="8"/>
+      <c r="BH78" s="8"/>
+      <c r="BI78" s="8"/>
+      <c r="BJ78" s="8"/>
+      <c r="BK78" s="8"/>
+      <c r="BL78" s="8"/>
       <c r="BM78" s="8"/>
       <c r="BN78" s="8"/>
+      <c r="BO78" s="8"/>
+      <c r="BP78" s="8"/>
+      <c r="BQ78" s="8"/>
       <c r="BR78" s="8"/>
+      <c r="BS78" s="8"/>
       <c r="BT78" s="8"/>
       <c r="BU78" s="8"/>
+      <c r="BV78" s="8"/>
+      <c r="BW78" s="8"/>
+      <c r="BX78" s="8"/>
+      <c r="BY78" s="8"/>
+      <c r="BZ78" s="8"/>
       <c r="CA78" s="8"/>
       <c r="CB78" s="8"/>
+      <c r="CC78" s="8"/>
+      <c r="CD78" s="8"/>
       <c r="CE78" s="8"/>
+      <c r="CF78" s="8"/>
+      <c r="CG78" s="8"/>
       <c r="CH78" s="8"/>
       <c r="CI78" s="8"/>
+      <c r="CJ78" s="8"/>
+      <c r="CK78" s="8"/>
+      <c r="CL78" s="8"/>
+      <c r="CM78" s="8"/>
+      <c r="CN78" s="8"/>
       <c r="CO78" s="8"/>
       <c r="CP78" s="8"/>
-      <c r="CT78" s="12"/>
-      <c r="CU78" s="12"/>
+      <c r="CQ78" s="8"/>
       <c r="CV78" s="12"/>
       <c r="CW78" s="12"/>
       <c r="DC78" s="12"/>
@@ -9322,11 +9349,11 @@
     </row>
     <row r="79" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
       <c r="H79" s="9"/>
       <c r="I79" s="11"/>
       <c r="J79" s="44"/>
@@ -9357,6 +9384,8 @@
       <c r="CI79" s="8"/>
       <c r="CO79" s="8"/>
       <c r="CP79" s="8"/>
+      <c r="CT79" s="12"/>
+      <c r="CU79" s="12"/>
       <c r="CV79" s="12"/>
       <c r="CW79" s="12"/>
       <c r="DC79" s="12"/>
@@ -9378,11 +9407,11 @@
     </row>
     <row r="80" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
       <c r="H80" s="9"/>
       <c r="I80" s="11"/>
       <c r="J80" s="44"/>
@@ -9415,7 +9444,6 @@
       <c r="CP80" s="8"/>
       <c r="CV80" s="12"/>
       <c r="CW80" s="12"/>
-      <c r="CX80" s="12"/>
       <c r="DC80" s="12"/>
       <c r="DD80" s="12"/>
       <c r="DI80" s="12"/>
@@ -9435,11 +9463,11 @@
     </row>
     <row r="81" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="9"/>
       <c r="I81" s="11"/>
       <c r="J81" s="44"/>
@@ -9492,8 +9520,8 @@
     </row>
     <row r="82" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="9"/>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
@@ -9529,6 +9557,7 @@
       <c r="CP82" s="8"/>
       <c r="CV82" s="12"/>
       <c r="CW82" s="12"/>
+      <c r="CX82" s="12"/>
       <c r="DC82" s="12"/>
       <c r="DD82" s="12"/>
       <c r="DI82" s="12"/>
@@ -9660,52 +9689,25 @@
     </row>
     <row r="85" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="47"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="44"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
       <c r="W85" s="8"/>
       <c r="X85" s="8"/>
-      <c r="Y85" s="8"/>
-      <c r="Z85" s="8"/>
-      <c r="AA85" s="8"/>
-      <c r="AB85" s="8"/>
-      <c r="AC85" s="8"/>
       <c r="AD85" s="8"/>
       <c r="AE85" s="8"/>
-      <c r="AF85" s="8"/>
-      <c r="AG85" s="8"/>
-      <c r="AH85" s="8"/>
-      <c r="AI85" s="8"/>
-      <c r="AJ85" s="8"/>
       <c r="AK85" s="8"/>
       <c r="AL85" s="8"/>
-      <c r="AM85" s="8"/>
-      <c r="AN85" s="8"/>
-      <c r="AO85" s="8"/>
       <c r="AP85" s="8"/>
-      <c r="AQ85" s="8"/>
       <c r="AR85" s="8"/>
       <c r="AS85" s="8"/>
-      <c r="AT85" s="8"/>
-      <c r="AU85" s="8"/>
-      <c r="AV85" s="8"/>
       <c r="AY85" s="8"/>
       <c r="AZ85" s="8"/>
       <c r="BF85" s="8"/>
@@ -9742,26 +9744,53 @@
       <c r="EZ85" s="12"/>
     </row>
     <row r="86" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="46"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
       <c r="W86" s="8"/>
       <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="8"/>
       <c r="AD86" s="8"/>
       <c r="AE86" s="8"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+      <c r="AI86" s="8"/>
+      <c r="AJ86" s="8"/>
       <c r="AK86" s="8"/>
       <c r="AL86" s="8"/>
+      <c r="AM86" s="8"/>
+      <c r="AN86" s="8"/>
+      <c r="AO86" s="8"/>
       <c r="AP86" s="8"/>
+      <c r="AQ86" s="8"/>
       <c r="AR86" s="8"/>
       <c r="AS86" s="8"/>
+      <c r="AT86" s="8"/>
+      <c r="AU86" s="8"/>
+      <c r="AV86" s="8"/>
       <c r="AY86" s="8"/>
       <c r="AZ86" s="8"/>
       <c r="BF86" s="8"/>
@@ -9798,15 +9827,15 @@
       <c r="EZ86" s="12"/>
     </row>
     <row r="87" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="47"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="46"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="W87" s="8"/>
@@ -9818,71 +9847,26 @@
       <c r="AP87" s="8"/>
       <c r="AR87" s="8"/>
       <c r="AS87" s="8"/>
-      <c r="AT87" s="8"/>
-      <c r="AU87" s="8"/>
-      <c r="AV87" s="8"/>
-      <c r="AW87" s="8"/>
-      <c r="AX87" s="8"/>
       <c r="AY87" s="8"/>
       <c r="AZ87" s="8"/>
-      <c r="BA87" s="8"/>
-      <c r="BB87" s="8"/>
-      <c r="BC87" s="8"/>
-      <c r="BD87" s="8"/>
-      <c r="BE87" s="8"/>
       <c r="BF87" s="8"/>
       <c r="BG87" s="8"/>
-      <c r="BH87" s="8"/>
-      <c r="BI87" s="8"/>
-      <c r="BJ87" s="8"/>
-      <c r="BK87" s="8"/>
-      <c r="BL87" s="8"/>
       <c r="BM87" s="8"/>
       <c r="BN87" s="8"/>
-      <c r="BO87" s="8"/>
-      <c r="BP87" s="8"/>
-      <c r="BQ87" s="8"/>
       <c r="BR87" s="8"/>
-      <c r="BS87" s="8"/>
       <c r="BT87" s="8"/>
       <c r="BU87" s="8"/>
-      <c r="BV87" s="8"/>
-      <c r="BW87" s="8"/>
-      <c r="BX87" s="8"/>
-      <c r="BY87" s="8"/>
-      <c r="BZ87" s="8"/>
       <c r="CA87" s="8"/>
       <c r="CB87" s="8"/>
-      <c r="CC87" s="8"/>
-      <c r="CD87" s="8"/>
       <c r="CE87" s="8"/>
-      <c r="CF87" s="8"/>
-      <c r="CG87" s="8"/>
       <c r="CH87" s="8"/>
       <c r="CI87" s="8"/>
-      <c r="CJ87" s="8"/>
-      <c r="CK87" s="8"/>
-      <c r="CL87" s="8"/>
-      <c r="CM87" s="8"/>
-      <c r="CN87" s="8"/>
       <c r="CO87" s="8"/>
       <c r="CP87" s="8"/>
-      <c r="CQ87" s="8"/>
-      <c r="CR87" s="12"/>
-      <c r="CS87" s="12"/>
-      <c r="CT87" s="12"/>
-      <c r="CU87" s="12"/>
       <c r="CV87" s="12"/>
       <c r="CW87" s="12"/>
-      <c r="CX87" s="12"/>
-      <c r="CY87" s="12"/>
-      <c r="CZ87" s="12"/>
-      <c r="DA87" s="12"/>
-      <c r="DB87" s="12"/>
       <c r="DC87" s="12"/>
       <c r="DD87" s="12"/>
-      <c r="DE87" s="12"/>
-      <c r="DF87" s="12"/>
       <c r="DI87" s="12"/>
       <c r="DJ87" s="12"/>
       <c r="DK87" s="12"/>
@@ -9899,12 +9883,12 @@
       <c r="EZ87" s="12"/>
     </row>
     <row r="88" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
       <c r="H88" s="9"/>
       <c r="I88" s="37"/>
       <c r="J88" s="47"/>
@@ -9916,11 +9900,7 @@
       <c r="AE88" s="8"/>
       <c r="AK88" s="8"/>
       <c r="AL88" s="8"/>
-      <c r="AM88" s="8"/>
-      <c r="AN88" s="8"/>
-      <c r="AO88" s="8"/>
       <c r="AP88" s="8"/>
-      <c r="AQ88" s="8"/>
       <c r="AR88" s="8"/>
       <c r="AS88" s="8"/>
       <c r="AT88" s="8"/>
@@ -9973,10 +9953,21 @@
       <c r="CO88" s="8"/>
       <c r="CP88" s="8"/>
       <c r="CQ88" s="8"/>
+      <c r="CR88" s="12"/>
+      <c r="CS88" s="12"/>
+      <c r="CT88" s="12"/>
+      <c r="CU88" s="12"/>
       <c r="CV88" s="12"/>
       <c r="CW88" s="12"/>
+      <c r="CX88" s="12"/>
+      <c r="CY88" s="12"/>
+      <c r="CZ88" s="12"/>
+      <c r="DA88" s="12"/>
+      <c r="DB88" s="12"/>
       <c r="DC88" s="12"/>
       <c r="DD88" s="12"/>
+      <c r="DE88" s="12"/>
+      <c r="DF88" s="12"/>
       <c r="DI88" s="12"/>
       <c r="DJ88" s="12"/>
       <c r="DK88" s="12"/>
@@ -9993,12 +9984,12 @@
       <c r="EZ88" s="12"/>
     </row>
     <row r="89" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
       <c r="H89" s="9"/>
       <c r="I89" s="37"/>
       <c r="J89" s="47"/>
@@ -10010,7 +10001,11 @@
       <c r="AE89" s="8"/>
       <c r="AK89" s="8"/>
       <c r="AL89" s="8"/>
+      <c r="AM89" s="8"/>
+      <c r="AN89" s="8"/>
+      <c r="AO89" s="8"/>
       <c r="AP89" s="8"/>
+      <c r="AQ89" s="8"/>
       <c r="AR89" s="8"/>
       <c r="AS89" s="8"/>
       <c r="AT89" s="8"/>
@@ -10083,48 +10078,24 @@
       <c r="EZ89" s="12"/>
     </row>
     <row r="90" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="9"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="21"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="47"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
       <c r="W90" s="8"/>
       <c r="X90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
-      <c r="AA90" s="8"/>
-      <c r="AB90" s="8"/>
-      <c r="AC90" s="8"/>
       <c r="AD90" s="8"/>
       <c r="AE90" s="8"/>
-      <c r="AF90" s="8"/>
-      <c r="AG90" s="8"/>
-      <c r="AH90" s="8"/>
-      <c r="AI90" s="8"/>
-      <c r="AJ90" s="8"/>
       <c r="AK90" s="8"/>
       <c r="AL90" s="8"/>
-      <c r="AM90" s="8"/>
-      <c r="AN90" s="8"/>
-      <c r="AO90" s="8"/>
       <c r="AP90" s="8"/>
-      <c r="AQ90" s="8"/>
       <c r="AR90" s="8"/>
       <c r="AS90" s="8"/>
       <c r="AT90" s="8"/>
@@ -10177,21 +10148,10 @@
       <c r="CO90" s="8"/>
       <c r="CP90" s="8"/>
       <c r="CQ90" s="8"/>
-      <c r="CR90" s="12"/>
-      <c r="CS90" s="12"/>
-      <c r="CT90" s="12"/>
-      <c r="CU90" s="12"/>
       <c r="CV90" s="12"/>
       <c r="CW90" s="12"/>
-      <c r="CX90" s="12"/>
-      <c r="CY90" s="12"/>
-      <c r="CZ90" s="12"/>
-      <c r="DA90" s="12"/>
-      <c r="DB90" s="12"/>
       <c r="DC90" s="12"/>
       <c r="DD90" s="12"/>
-      <c r="DE90" s="12"/>
-      <c r="DF90" s="12"/>
       <c r="DI90" s="12"/>
       <c r="DJ90" s="12"/>
       <c r="DK90" s="12"/>
@@ -10212,7 +10172,7 @@
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="21"/>
+      <c r="F91" s="20"/>
       <c r="G91" s="21"/>
       <c r="H91" s="9"/>
       <c r="I91" s="11"/>
@@ -10334,7 +10294,7 @@
     </row>
     <row r="92" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
-      <c r="C92" s="18"/>
+      <c r="C92" s="20"/>
       <c r="D92" s="20"/>
       <c r="E92" s="9"/>
       <c r="F92" s="21"/>
@@ -10342,15 +10302,39 @@
       <c r="H92" s="9"/>
       <c r="I92" s="11"/>
       <c r="J92" s="44"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
       <c r="W92" s="8"/>
       <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="8"/>
+      <c r="AC92" s="8"/>
       <c r="AD92" s="8"/>
       <c r="AE92" s="8"/>
+      <c r="AF92" s="8"/>
+      <c r="AG92" s="8"/>
+      <c r="AH92" s="8"/>
+      <c r="AI92" s="8"/>
+      <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
       <c r="AL92" s="8"/>
+      <c r="AM92" s="8"/>
+      <c r="AN92" s="8"/>
+      <c r="AO92" s="8"/>
       <c r="AP92" s="8"/>
+      <c r="AQ92" s="8"/>
       <c r="AR92" s="8"/>
       <c r="AS92" s="8"/>
       <c r="AT92" s="8"/>
@@ -10403,10 +10387,21 @@
       <c r="CO92" s="8"/>
       <c r="CP92" s="8"/>
       <c r="CQ92" s="8"/>
+      <c r="CR92" s="12"/>
+      <c r="CS92" s="12"/>
+      <c r="CT92" s="12"/>
+      <c r="CU92" s="12"/>
       <c r="CV92" s="12"/>
       <c r="CW92" s="12"/>
+      <c r="CX92" s="12"/>
+      <c r="CY92" s="12"/>
+      <c r="CZ92" s="12"/>
+      <c r="DA92" s="12"/>
+      <c r="DB92" s="12"/>
       <c r="DC92" s="12"/>
       <c r="DD92" s="12"/>
+      <c r="DE92" s="12"/>
+      <c r="DF92" s="12"/>
       <c r="DI92" s="12"/>
       <c r="DJ92" s="12"/>
       <c r="DK92" s="12"/>
@@ -10424,7 +10419,7 @@
     </row>
     <row r="93" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
-      <c r="C93" s="20"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="20"/>
       <c r="E93" s="9"/>
       <c r="F93" s="21"/>
@@ -10438,15 +10433,9 @@
       <c r="X93" s="8"/>
       <c r="AD93" s="8"/>
       <c r="AE93" s="8"/>
-      <c r="AI93" s="8"/>
-      <c r="AJ93" s="8"/>
       <c r="AK93" s="8"/>
       <c r="AL93" s="8"/>
-      <c r="AM93" s="8"/>
-      <c r="AN93" s="8"/>
-      <c r="AO93" s="8"/>
       <c r="AP93" s="8"/>
-      <c r="AQ93" s="8"/>
       <c r="AR93" s="8"/>
       <c r="AS93" s="8"/>
       <c r="AT93" s="8"/>
@@ -10501,7 +10490,6 @@
       <c r="CQ93" s="8"/>
       <c r="CV93" s="12"/>
       <c r="CW93" s="12"/>
-      <c r="CZ93" s="12"/>
       <c r="DC93" s="12"/>
       <c r="DD93" s="12"/>
       <c r="DI93" s="12"/>
@@ -10521,11 +10509,11 @@
     </row>
     <row r="94" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
       <c r="H94" s="9"/>
       <c r="I94" s="11"/>
       <c r="J94" s="44"/>
@@ -10535,31 +10523,70 @@
       <c r="X94" s="8"/>
       <c r="AD94" s="8"/>
       <c r="AE94" s="8"/>
+      <c r="AI94" s="8"/>
+      <c r="AJ94" s="8"/>
       <c r="AK94" s="8"/>
       <c r="AL94" s="8"/>
+      <c r="AM94" s="8"/>
+      <c r="AN94" s="8"/>
+      <c r="AO94" s="8"/>
       <c r="AP94" s="8"/>
+      <c r="AQ94" s="8"/>
       <c r="AR94" s="8"/>
       <c r="AS94" s="8"/>
+      <c r="AT94" s="8"/>
+      <c r="AU94" s="8"/>
+      <c r="AV94" s="8"/>
+      <c r="AW94" s="8"/>
+      <c r="AX94" s="8"/>
       <c r="AY94" s="8"/>
       <c r="AZ94" s="8"/>
+      <c r="BA94" s="8"/>
+      <c r="BB94" s="8"/>
+      <c r="BC94" s="8"/>
+      <c r="BD94" s="8"/>
+      <c r="BE94" s="8"/>
       <c r="BF94" s="8"/>
       <c r="BG94" s="8"/>
+      <c r="BH94" s="8"/>
+      <c r="BI94" s="8"/>
+      <c r="BJ94" s="8"/>
+      <c r="BK94" s="8"/>
+      <c r="BL94" s="8"/>
       <c r="BM94" s="8"/>
       <c r="BN94" s="8"/>
+      <c r="BO94" s="8"/>
+      <c r="BP94" s="8"/>
+      <c r="BQ94" s="8"/>
       <c r="BR94" s="8"/>
+      <c r="BS94" s="8"/>
       <c r="BT94" s="8"/>
       <c r="BU94" s="8"/>
+      <c r="BV94" s="8"/>
+      <c r="BW94" s="8"/>
+      <c r="BX94" s="8"/>
+      <c r="BY94" s="8"/>
+      <c r="BZ94" s="8"/>
       <c r="CA94" s="8"/>
       <c r="CB94" s="8"/>
+      <c r="CC94" s="8"/>
+      <c r="CD94" s="8"/>
       <c r="CE94" s="8"/>
+      <c r="CF94" s="8"/>
+      <c r="CG94" s="8"/>
       <c r="CH94" s="8"/>
       <c r="CI94" s="8"/>
+      <c r="CJ94" s="8"/>
+      <c r="CK94" s="8"/>
+      <c r="CL94" s="8"/>
+      <c r="CM94" s="8"/>
+      <c r="CN94" s="8"/>
       <c r="CO94" s="8"/>
       <c r="CP94" s="8"/>
-      <c r="CT94" s="12"/>
-      <c r="CU94" s="12"/>
+      <c r="CQ94" s="8"/>
       <c r="CV94" s="12"/>
       <c r="CW94" s="12"/>
+      <c r="CZ94" s="12"/>
       <c r="DC94" s="12"/>
       <c r="DD94" s="12"/>
       <c r="DI94" s="12"/>
@@ -10578,15 +10605,15 @@
       <c r="EZ94" s="12"/>
     </row>
     <row r="95" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="20"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="47"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="44"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="W95" s="8"/>
@@ -10614,6 +10641,8 @@
       <c r="CI95" s="8"/>
       <c r="CO95" s="8"/>
       <c r="CP95" s="8"/>
+      <c r="CT95" s="12"/>
+      <c r="CU95" s="12"/>
       <c r="CV95" s="12"/>
       <c r="CW95" s="12"/>
       <c r="DC95" s="12"/>
@@ -10634,7 +10663,7 @@
       <c r="EZ95" s="12"/>
     </row>
     <row r="96" spans="2:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="9"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -10977,8 +11006,8 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="9"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="46"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="47"/>
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="W102" s="8"/>
@@ -12993,8 +13022,8 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="45"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="46"/>
       <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
       <c r="W138" s="8"/>
@@ -20606,8 +20635,8 @@
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
-      <c r="F274" s="9"/>
-      <c r="G274" s="9"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10"/>
       <c r="H274" s="9"/>
       <c r="I274" s="13"/>
       <c r="J274" s="45"/>
@@ -26986,36 +27015,15 @@
       <c r="EZ387" s="12"/>
     </row>
     <row r="388" spans="1:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B388" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C388" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D388" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E388" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F388" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G388" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H388" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I388" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J388" s="45" t="s">
-        <v>19</v>
-      </c>
+      <c r="B388" s="9"/>
+      <c r="C388" s="9"/>
+      <c r="D388" s="9"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="9"/>
+      <c r="G388" s="9"/>
+      <c r="H388" s="9"/>
+      <c r="I388" s="13"/>
+      <c r="J388" s="45"/>
       <c r="P388" s="8"/>
       <c r="Q388" s="8"/>
       <c r="W388" s="8"/>
@@ -27062,16 +27070,37 @@
       <c r="ET388" s="12"/>
       <c r="EZ388" s="12"/>
     </row>
-    <row r="389" spans="1:156" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B389" s="9"/>
-      <c r="C389" s="9"/>
-      <c r="D389" s="9"/>
-      <c r="E389" s="9"/>
-      <c r="F389" s="9"/>
-      <c r="G389" s="9"/>
-      <c r="H389" s="9"/>
-      <c r="I389" s="13"/>
-      <c r="J389" s="45"/>
+    <row r="389" spans="1:156" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D389" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E389" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F389" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G389" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H389" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I389" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J389" s="45" t="s">
+        <v>19</v>
+      </c>
       <c r="P389" s="8"/>
       <c r="Q389" s="8"/>
       <c r="W389" s="8"/>
@@ -61390,7 +61419,7 @@
       <c r="ET1001" s="12"/>
       <c r="EZ1001" s="12"/>
     </row>
-    <row r="1002" spans="2:156" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="2:156" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1002" s="9"/>
       <c r="C1002" s="9"/>
       <c r="D1002" s="9"/>
@@ -61446,7 +61475,7 @@
       <c r="ET1002" s="12"/>
       <c r="EZ1002" s="12"/>
     </row>
-    <row r="1003" spans="2:156" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="2:156" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1003" s="9"/>
       <c r="C1003" s="9"/>
       <c r="D1003" s="9"/>
@@ -61502,25 +61531,81 @@
       <c r="ET1003" s="12"/>
       <c r="EZ1003" s="12"/>
     </row>
+    <row r="1004" spans="2:156" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1004" s="9"/>
+      <c r="C1004" s="9"/>
+      <c r="D1004" s="9"/>
+      <c r="E1004" s="9"/>
+      <c r="F1004" s="9"/>
+      <c r="G1004" s="9"/>
+      <c r="H1004" s="9"/>
+      <c r="I1004" s="13"/>
+      <c r="J1004" s="45"/>
+      <c r="P1004" s="8"/>
+      <c r="Q1004" s="8"/>
+      <c r="W1004" s="8"/>
+      <c r="X1004" s="8"/>
+      <c r="AD1004" s="8"/>
+      <c r="AE1004" s="8"/>
+      <c r="AK1004" s="8"/>
+      <c r="AL1004" s="8"/>
+      <c r="AP1004" s="8"/>
+      <c r="AR1004" s="8"/>
+      <c r="AS1004" s="8"/>
+      <c r="AY1004" s="8"/>
+      <c r="AZ1004" s="8"/>
+      <c r="BF1004" s="8"/>
+      <c r="BG1004" s="8"/>
+      <c r="BM1004" s="8"/>
+      <c r="BN1004" s="8"/>
+      <c r="BR1004" s="8"/>
+      <c r="BT1004" s="8"/>
+      <c r="BU1004" s="8"/>
+      <c r="CA1004" s="8"/>
+      <c r="CB1004" s="8"/>
+      <c r="CE1004" s="8"/>
+      <c r="CH1004" s="8"/>
+      <c r="CI1004" s="8"/>
+      <c r="CO1004" s="8"/>
+      <c r="CP1004" s="8"/>
+      <c r="CV1004" s="12"/>
+      <c r="CW1004" s="12"/>
+      <c r="DC1004" s="12"/>
+      <c r="DD1004" s="12"/>
+      <c r="DI1004" s="12"/>
+      <c r="DJ1004" s="12"/>
+      <c r="DK1004" s="12"/>
+      <c r="DQ1004" s="12"/>
+      <c r="DR1004" s="12"/>
+      <c r="DX1004" s="12"/>
+      <c r="DY1004" s="12"/>
+      <c r="EE1004" s="12"/>
+      <c r="EF1004" s="12"/>
+      <c r="EL1004" s="12"/>
+      <c r="EM1004" s="12"/>
+      <c r="ES1004" s="12"/>
+      <c r="ET1004" s="12"/>
+      <c r="EZ1004" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:I81" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:I82" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="K4:EZ1003">
+  <conditionalFormatting sqref="K4:EZ1004">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(K$2&gt;=$F4,K$2&lt;=$G4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:EZ1003">
+  <conditionalFormatting sqref="K2:EZ1004">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:EZ1003">
+  <conditionalFormatting sqref="K2:EZ1004">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(TODAY()&gt;=K$2,TODAY()&lt;L$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I387">
+  <conditionalFormatting sqref="I5:I388">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -61535,8 +61620,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E387" xr:uid="{AC04C826-FF99-4AC8-A89B-5A3A4C718AB5}">
-      <formula1>$A$388:$I$388</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E388" xr:uid="{AC04C826-FF99-4AC8-A89B-5A3A4C718AB5}">
+      <formula1>$A$389:$I$389</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -61557,7 +61642,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I5:I387</xm:sqref>
+          <xm:sqref>I5:I388</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wken0\Desktop\HAL\2年\HF21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D9D13-FA6C-4EF6-A413-104D4B2EE3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BCA1A-3CE8-46E0-8AA8-634860A7ADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$81</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>分類</t>
   </si>
@@ -400,6 +401,10 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +415,7 @@
     <numFmt numFmtId="177" formatCode="d"/>
     <numFmt numFmtId="178" formatCode="aaa"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +445,13 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -588,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +753,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EZ1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="9" ySplit="3" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -61567,4 +61582,25 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F4F7A7-FA66-4017-9D8D-7BA65F235A12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\201\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wken0\Desktop\HAL\2年\HF21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BCA1A-3CE8-46E0-8AA8-634860A7ADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBCEC14-031A-4633-A660-EEE24A9A9F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>分類</t>
   </si>
@@ -1012,11 +1012,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EZ1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="K21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5668,9 +5668,13 @@
       <c r="D37" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="G37" s="33">
+        <v>45236</v>
+      </c>
       <c r="H37" s="9"/>
       <c r="I37" s="37"/>
       <c r="J37" s="47"/>
@@ -61588,7 +61592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F4F7A7-FA66-4017-9D8D-7BA65F235A12}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BCA1A-3CE8-46E0-8AA8-634860A7ADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0385B2-0EDE-49D4-B179-DF5EED49A093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <t>テスト２</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -61589,7 +61589,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
